--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/65_Rize_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/65_Rize_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC4E65EA-271F-49C8-9BC0-DF85B447D7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6A4EC7-AEB5-4D23-BA27-F518B2279160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A1840E3-9BD2-45D3-854E-FCE5858E1B10}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2FC0A17-9A39-4A60-A968-31E07C58C4EC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{CED360B9-1A46-4287-842F-DAAAEB02CE70}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{3A69DA71-F886-42CC-9323-B0A52E84EF3C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{3FA8E68B-F928-4ADF-B5EC-5BA289F3B2A4}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{D738679F-102C-47BF-941D-FE1A20ECA469}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{00FB35BD-7861-4EC8-BB29-A6C856EAE523}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{344ABCE5-1CB4-4AF3-BF8E-506BF5E15E35}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{5E4EB53B-DE1A-470B-A587-1076D3BB3138}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{AB615DC4-717D-4379-A81B-48EF8E7D4C72}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41083E2-CC3C-449F-9882-FB5D7E1002A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF16E87-3F26-4262-8344-556CD0907866}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2453,18 +2453,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{10EF5FC6-E0E8-4C6D-B4F8-DA38FF1FB79E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EA072ECF-BC49-4738-B718-508F6AFF0092}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4E97CF1B-96A2-4C80-82E9-52DB17AE7B78}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{48FB3BE6-D0CE-4A13-9C46-45E382ACAD4B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{98A358E4-905F-4956-8530-E8D838990C4F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B99BD584-9077-45B1-9CA6-F410899BB4FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{19CE3257-2FDA-49EB-B422-6674EFE3BC09}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{91850587-15AB-43CA-9941-FA13A935CA16}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7AC39466-0FEF-4914-B87A-642EE52DE0CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7F4EB9FB-EC86-4DE1-9712-9CE8F8820743}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0EE718F4-8CDA-4026-B6FE-9412FA5BAA42}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CFC29BC0-73A5-40C0-A584-9604AA2779F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{69A9E2A6-9B9A-48EA-A216-9FDB4DADFA7C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C5F59BE6-9A97-40C4-9C7B-7D1A9B621AFD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{14869A9E-4121-46C7-BCBE-D21EF8D84147}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2E98F386-555A-4EDC-9365-41F692B9D838}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C3928236-4067-426C-81AD-9AE6B5F3B089}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{87F9005A-ABBE-490D-BB55-2DE7E3AB0552}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4A54F6CC-1238-4DF1-BC8E-974698F01972}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{001C5E57-28B7-43F5-A678-41F4641157E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{32A80488-84CE-456D-BB42-501222A07D79}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EF66844E-8799-46CC-93C2-73409323BA05}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D781E379-95ED-4DE0-A10E-C19E0A233DD3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3AD04EB7-7227-476C-8B29-6DD15D639B2D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2477,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D719D72A-8441-487E-BA37-D984EC9F19F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EFC3E9-3B08-47E3-9936-D76E40E30853}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3670,18 +3670,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EC3E9690-20C9-4314-AB43-D81084085445}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CE0907F2-036E-43CE-B494-A26CF04980AA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4FD5060C-DD13-4D62-9D19-5507D1DD361E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1E35D47B-D8F8-4956-8E67-EBB518A20470}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{91979D38-8861-4265-8C7B-8E70D3485F54}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{11578720-686A-4F88-9688-0BD8F96EAA3F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F8B3FA0A-6178-4B70-95CE-A5E330DBCDD3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{14123DAF-0651-4491-925A-92AFF318EB48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EF2AC85E-86DC-4C93-8DDE-41A75BAE200B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FC533DF7-AA1A-4857-BD80-CD344C1501E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D2C81B3-6C05-40AA-8F3B-7BA1B70683D7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C32362F2-A3A5-488C-B69F-F1132C6511C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BCC1D2F7-BA41-4967-A96F-05A834F6B9AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9BC398A5-951E-4C2D-B88F-EE09862D3B84}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CCF68DC8-5F21-48B4-8A26-871EE8C2BC85}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DDD5DAE6-9800-4901-9A63-5A83A9DC3BF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CAF25C1C-0EE2-478C-97DE-9EE0D8E05681}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93945BFE-1C56-423C-A310-C06120D27955}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A4513066-E67D-4599-A514-AD3B51CDD24F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AC2B8133-A8FC-49B1-804D-866AF7B6EA92}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{759E67C2-9CDB-49B3-8D58-398AE0191E41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{905B9731-A57E-4F01-8C9C-5832853BB8DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33BDF25B-50B6-453B-99CD-A0D17AD75FEE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0642DF0D-65DB-4A79-929A-A9FEAA6E3460}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3694,7 +3694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A4D89A-BD20-483B-B1E3-D1E262C2565F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F774300D-3BD0-4E7F-8637-AF4DB6222406}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4887,18 +4887,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F225EA71-8342-4F1F-8824-94D65487FBE3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4C390CA9-BFAA-4F69-AE54-FF9F99684B83}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3373C28D-D0C2-4E5F-820A-7B1C5A0D63F3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A5BEC6C8-5D74-4C48-BB48-0512F1C80793}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9D5FFD3C-D5E6-40B1-A620-93A9EE9BB996}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7A23C329-160A-4A22-8DFC-74CA8CD32C44}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4C62F26B-79A9-47F5-8B94-5F90586A7B29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5FDE7F6B-914D-478F-B57C-B6D83F37D055}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D9488D14-9C55-4117-BE74-2080DA9933D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{03E5D7F7-C279-458C-BD3C-CDFEC7C8EE75}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9C84FBE6-1516-499E-ADBD-9985D993B3E7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD72A164-D58D-4A19-8EF9-ABC057099126}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{954469EC-2655-4E5B-A480-C029DDB61587}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3A7789D4-E265-49CD-BF15-4020FBC5FDC0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{09456308-CE7B-4630-95D2-910B7B38656B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BA6C2E91-E8C3-4433-A244-309732225DB0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{096B6609-681B-4431-B138-E5C834A2A310}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{754AF980-276F-4D84-80BF-A1A4D7FA959A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D1304E32-F703-46EE-994B-0EA62D62BCF2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{509A2337-5F82-419E-A92D-C3D11599A5B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8E1969D4-B58F-46DA-B8AC-4E572DB38681}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E87D3433-D8C1-48DB-BF0A-C6330EE48ECA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8119111A-2931-4B00-8387-CC2897B117AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3F648FCA-435F-4A68-85F9-002FDDA73AA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4911,7 +4911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB129BF9-2629-4B1D-A652-1E3937933A27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0182DC4-7124-46AF-BC59-F70CF7479DEF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6098,18 +6098,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ECF3BE38-525C-4FBD-82E5-C859CCA85058}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4E7C1509-214E-4241-ACA0-FA76E9E02968}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3792D8AB-9802-4704-9706-F3194525C187}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BF9D8982-DFE2-44CC-A31C-1FB434FD9524}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{101195D2-3AF2-4FB4-803D-28C124A31841}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BB952B44-1410-416F-980A-E8EA93F72A94}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{657FD877-7E78-49BA-B4C0-C8BC523CCE91}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{09D125B6-72A7-4DFE-86F1-82E6B0A35B4C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{88ABD253-E6ED-4BC4-99EE-274C3094305A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4869772B-BD67-4245-9BB0-C243B070C3C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{84FA64E4-7B61-4138-B85A-07F2DE46425F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9989B8EF-F78C-40CE-AF4C-50CB8A994BB9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B3DEC3DB-5D7A-4A8E-B0CC-8FE68A7FF316}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B8BE7295-7558-4EA2-A8B6-A11D6E97CA4B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B0BB75D0-EB36-4F4B-9476-75FFDDE40C46}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B4CD879-2631-411F-BC91-851A5DD8C0BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A05FEC46-4304-4C7F-9486-B76425C39CCC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{306341E3-9850-480D-8653-3CBB37A345B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9D07DB60-560F-4D56-BC20-FDA780168C05}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{31444BF2-ADC5-4F85-B008-337B29BF2D87}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{66140752-F325-4C90-B511-B9EBCAF0DBD8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C7E02D9A-7966-47FC-9C35-96C06B70CE51}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2B4E5C7A-4336-46AC-888F-970CE8A433A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3EC9BFFF-6D0B-42B7-AEFA-FD4B0B8FAD92}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6122,7 +6122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8B6905-49F6-4858-B54F-7BDB630C863C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17D79FC-AAD3-491B-830E-59FCE4253B30}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7345,18 +7345,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BA4A9FAE-1675-4186-A411-9B6F00A9DE6E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FC356A15-A4D3-465E-8181-820861AFAF07}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7779D682-ED7D-44FB-9882-F335DD499A5E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{15527157-29E5-45E9-8145-7C2C0AC68AAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E225960-163B-49D9-B13B-522F041D5B8F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{97520680-E34B-4210-9B1F-2E1C43C445FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FCF6CF07-EC79-4C77-BE7E-7E6E8963293B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AA69C183-C837-4808-B45F-139479E4BD4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D8448F24-E846-4626-B23B-02EE7A05770B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5FE56B07-FF71-47BF-9DCA-A85798524B10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CE170B8F-AB9D-4E05-93F0-E2B0B5F9A53D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7BBDE5C2-4311-4DA8-8A6B-42E6EC4682E6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D65BD100-7BD8-4B59-9495-260CDA1F29D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8986D864-6C49-4219-A3EE-E443BAD1F1C5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A89D08EE-B0F7-45A1-A2B5-E5C185718C2A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1ACA3243-2640-4FE2-B7D1-36BB49DA8967}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{166B3A38-1437-43CA-8D4D-56543AECE1DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8ED3C9BB-82CC-4593-8A8F-971146AE1700}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B1D034AD-133B-4A68-8136-52FD9E73327F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B3E62C47-03D8-4B96-B153-5A48AA8E8EA1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CE8F65E9-A858-4931-BF23-0727F5148D43}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9B17D317-44CA-48BD-879E-15873457116D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{43A86910-A42D-4650-A031-D7B4D6A91E5C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC9AC5EE-B75D-45FF-85C9-70BD20E1F4F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7369,7 +7369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F6E6DC-7759-4AD8-80A5-3DE1E8B9F799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2241808C-D251-4ED5-845F-2C75CED7BE8D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8586,18 +8586,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DDEB22C6-59D9-4D57-B099-3BDD050C3CA1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C7E8E2AA-ED83-479A-B266-31FB0D95019B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E68DA450-88E2-472C-8C51-DC559B1F2F38}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3F1A7A63-D994-44F6-AE2B-33C1D7CAC549}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{664C0D88-B44D-47F5-AC9B-5CB0807F0605}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4D768A46-73EF-458F-A7E4-C2F8AA479004}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7CC93E39-F4CC-42A1-A101-7B4C46116460}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{13409190-99EA-40E0-8DDF-50AD66999656}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{604A8333-55CF-41D1-A1B6-F6DD97F49CD0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FDA52252-1A32-4084-890F-36EAAC1D7A94}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A065028A-90DF-4BB9-9853-CEB33ABAD2AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D0532377-31BE-455D-87D3-AA0F34C786EE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1442EBE5-725A-44CC-AF98-BF3A821D23F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B5B1270B-666D-48FE-991B-06FD12D079D7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{21884603-D993-4526-898C-C903D1F64D41}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1B708757-7371-436F-8B93-5F44E90AA70C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2A3EE009-CDC1-4379-9153-62B2322CFF2E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0E3EA7C3-CDF6-49BF-B545-5F262CF26B26}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A1639530-8DEF-4A98-9DC7-07FCC369BE3E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{29E3D96D-BFCE-45A9-9F5E-A60C20B95C28}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BD1273D3-62E8-4F8C-B32D-545BC79652D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8C876350-A7DD-469D-BDE6-615B33B7B117}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{03EC74B7-F347-49C5-B110-5640A1518334}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9DC12208-75D2-4B32-A784-E09DD7DECFB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8610,7 +8610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118EF2B7-56BE-411F-ACB2-71FFA5A450C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7136D15-F6AA-4B4D-9BB8-D32A6D707596}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9829,18 +9829,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{19A5ADA5-FFFE-47F8-863B-8D8F34F34B86}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A126B008-D916-470D-8D77-8EED0292C315}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6F7A8D3E-5F6D-4B91-951F-468B3D105077}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7C573527-CFEB-4167-9800-A79112FD2A47}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FEAFABFA-0CD7-48B7-883F-A1F3015A7307}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F8402153-DF4B-468F-B8C0-F11B4E8118A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D0AF2EF8-9E4F-41A6-95C3-498B98551C1A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D0DE77FC-404C-46F1-89E5-15E6A188F382}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F32E3B05-3A98-406D-AA96-023551A88BDE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{44E0495F-AC7E-4D8D-ABED-3CDF5DF9504C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C7C978D3-1F01-480F-97BD-D3DA364B7FBE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D1893FD0-F4F5-4B28-8BD6-36CC297C89A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A42AD6DD-D521-4D47-BF79-C7FEF5AC2F7F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9C2A2285-599A-4174-A10F-B8EB71148CD9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{71B17F27-9DCC-454A-AADB-EE2D9CDF829A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{047FB99A-D632-4A52-A92A-9C1F1F0D89D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3F3A7613-C2A1-4DBC-840B-B521AE9B622F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{772A43BC-8CDE-4897-B8EE-22EA6F2E9A8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{434E6F70-EE89-4A4D-BF11-03D5C5244C44}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A439498A-9F1A-4026-BB04-9127F5C3FCD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1FC0A21E-D04B-40CE-BD59-57463E5B480F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{212D92F0-64B6-4D66-A2F0-CCFF2BDB06D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E0D76CE-F4CA-4590-83B7-5D22733225BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F4A427E2-35F3-4B21-9D1A-D3514FE3F94C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9853,7 +9853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D6CE11-5C58-47CD-A819-CEEA78B94827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9183C9-3BB3-4469-A4C1-A4F14CD30B4B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11066,18 +11066,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{38EB8B62-5DE4-4250-B315-EEC732B7F327}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{23D2D944-0109-430F-A3BD-C5BAECC63FED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FE0D6307-5DA5-4968-B47E-975DA0FC9D5E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ED71D5C9-E4E3-435A-A123-0F79194E29F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3DC10289-827D-4475-9AEC-7B7FFEFA3E14}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3316389A-1B4D-47C5-989C-BAA67B408C7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{23716605-711E-4ED4-AF71-1410AB7A5FDF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{45E623CB-FF2F-4405-9DFA-BFD34CC5E47E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{47099E09-5DD7-4719-84DD-2D6481102FDD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3AE263EE-79A7-41F8-A94D-ED140E223A68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{15335C20-1AC1-4543-A71C-2D279F9A0F53}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{87C198E1-0B15-4B1C-AFB2-B552AA58F09D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{134BF307-1B03-43C3-8152-0A5315A1197B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{752858F4-7BC3-41AB-BC19-E5A63F8F4EE4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1D6BF8FA-F37E-4167-B474-5E40C411158F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2270A8AF-86AA-446B-A11D-B260F1E5FA83}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9BADAAE7-5CAD-4E07-B579-7A9CD89FD1FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BF2F18A8-0040-4E56-A449-43C5CA7770FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F0AAFA66-FC9B-4765-8A05-B4A6DAF4F7AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1F5F767C-9914-4CDF-8B2E-1121EA305706}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{49CBC157-8E00-406A-8393-FF9213E98FC8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{225EF13C-F798-4027-92AE-53DA368AB945}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{47EE9887-DE69-42E4-A28E-CA34C391265D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EBC40C70-5EBC-4B2C-B82D-474D36F92EA6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11090,7 +11090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CD7D95-CBE1-4B84-BFB6-5C0B8CD0C5C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795264AB-AE37-4DE4-9548-D0C1D1936884}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12303,18 +12303,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{997D740E-9F61-48FE-8582-C13FC3C50B4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5B827550-E077-46CD-83B7-6C1262E65D90}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D27D71A1-2888-469C-9BC1-85F78FD5B910}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1B4AA304-5C05-4C63-BF0D-5CCD6305E1AB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B7D8C464-3847-41A4-BE0D-DD2EB414E8E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{584DE7BB-04E1-478B-BD02-F62B2F37ACD3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C86E8762-8E1A-4B02-A1A8-DE09E4E14535}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E2FA1F52-27DB-4D4E-BF20-B869ABB93C9B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{41348CE8-BB0E-46BB-9BD9-9DC12850D0CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CDB5F580-8836-4BF3-85D3-4D3B420EA173}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8E97FC89-3428-4C9A-861B-F4C7D0CCE8BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4B76B3B9-D730-4A1A-8D87-BFD9DB7BDBD0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{40866EF6-6150-42AD-9930-8413A2DE7F4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2C890641-02DD-4E19-94C8-35B75CD50EC3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F01B4456-27EE-48DD-9FB4-6D25C86C20ED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{09E0EF09-FD84-48C1-A74E-C826456492C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E05D753A-6D6A-4C03-A8B2-58AC574DD3C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7B28DB58-0E23-43C6-9912-FF1886DE1BC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{26E2A210-DD15-4FCA-AA37-C99AE5C47D2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EB888E81-0786-46FC-9FC1-238A7B27229E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3883F388-D9BC-4A8D-B424-62AED11498EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F415B59B-5B15-4198-8D1C-05C5AEA7D201}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5A31C25A-229E-48BC-B0B9-95A1DD997AC7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6812EC5F-E0D6-471C-9503-8F47E4F9B29F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12327,7 +12327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E43E013-5CA1-4128-8B7E-91F6958F4B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90598E2-CFBE-434D-8C0A-D508F534F51B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13540,18 +13540,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{581D7A62-DE06-45D8-BAB3-4C64B4C5C9B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{781565AF-36FB-43BC-AFBE-ED083A870A17}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{56497B48-C402-4D21-B18B-0F72B565FBE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9A58D4F7-A819-43D0-A2EF-E4FD82D68C9D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA685696-D37F-4388-93DA-C1D9AB9A9BCC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7BF0B6EA-2697-465A-9444-983CF1199107}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2F839A0E-7C67-4238-AB3F-A9751421EA25}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{95F76364-A6F9-4F44-B518-A57366F96680}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{94DDF793-4EA4-46CA-B7BF-B45427CB4968}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E67232E9-B637-498B-B785-5E7478E54891}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7698EA8E-8ED6-45C1-9525-96FC832BB750}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C490D54B-0F86-4F28-8A2B-667C72579C03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3494278-368F-4212-BE63-13C1C19D787F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FEAFFA56-C498-46F4-A00D-AA98EB0FF70B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5E4E2F0F-8C4F-45B2-807F-86C1F900BBF5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A5F62949-8234-4B02-9E99-493360A6CCD1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EDD481C5-9C62-449F-9161-05D3C6DBEA06}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5CAE8DEE-CF87-4388-A2C5-016BBEF7A840}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7431EBD6-4AD5-47F3-8ECC-0B51FED224A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5801ACD2-6A4F-481F-8995-2C99C2FF2F56}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A5DDA1F-6797-4688-BD2A-899D5173AA65}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D10FAA25-1E1D-4712-A57C-323D299B5256}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2FEA09FF-8B5A-4A3A-AE36-9923BE08DA71}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7E454C42-0B47-4C20-94BE-CB86763368C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13564,7 +13564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496755EB-91BC-4EAD-BDBE-0EF8A6F853B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E335B524-1AE6-4610-ADF6-F17FAD5E6033}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14773,18 +14773,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6A48B234-D5FC-4CA0-AC9A-64D5D0860698}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{739C8A53-D238-4E50-B091-F9A9C0F6A860}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ED6FE434-2044-4673-B8E4-5E92A4A804A0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E0A41673-23BB-4B16-B814-FFFF15E39193}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B6098CE2-3A8A-4CFE-98A0-CBB9A5F309D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B076B2EE-279B-4178-AF1F-527230D4AAE5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D8081E47-3FC4-42B7-B936-C376B0F6BEF7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4DAB6163-9295-4FAC-B6E5-94E6D9F26263}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{87547472-B105-4502-A0D4-8CF9A3074DB1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC1868B4-FF39-4538-BF52-0B70739B3E8A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{75609E1F-C82B-4D1B-93DD-2C60AD638149}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{79BE9719-3ACF-4AB8-AE62-59DF92F38509}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{57CBE523-3929-4D9A-A765-1283B9583563}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4B4916EA-D6DA-4321-948B-9F5D28372752}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{24A1FF53-C141-43F7-AA41-5E0EA7F988AD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D1F98377-62A1-42B2-B481-DD30AC213971}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C150DFBC-1619-4A35-96A0-B11DDE8D4B0E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E4086ABC-42A7-40A2-B816-C625BBF5AD01}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9DC5259B-BA3D-4425-9111-0FD0F6B20AA2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4F1CEAA0-5ADC-4450-A1AA-21C273853BBF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4163719C-9F55-4D7D-BC68-587840261DC3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5F19BA2D-0601-4493-B13E-9E00A821AFC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{239D014D-6120-4BA9-93E3-5F6C177D192F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E36E89F5-CEE2-48AE-A2F8-C04FFFF34576}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14797,7 +14797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F7CB1-495E-47C2-96AB-95070257CB29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1329CB9A-1D48-4B6B-B4FB-C40C1B6C9E78}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16006,18 +16006,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{34D330E1-060D-474B-90A0-37DB942F2C81}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AC39281E-9F84-4F86-8EEA-0CD648C27523}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0D5C4589-C96D-4A2B-8454-6C8B9D04E3EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FB48DCA7-6514-413F-A5D5-F48B6227CF8D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B2A24D95-8CC0-4AFB-B2D2-D4F29BF180F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{40BD6F56-5894-490E-805F-B7018724AC94}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A58C9089-04E7-42CC-A1B2-BB00181B5F17}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C7033A08-09FE-4EF8-B196-42858FCE3338}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9C792D36-3DC5-4162-880E-B7489EAFCA61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0F270DE6-9286-4700-99BD-9F385AA9FBB2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{564902A1-D118-4BB0-8DFC-70B5E9676923}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{28569F34-87F1-412F-82CB-F725CC81D6CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{910B18E7-821A-4F9A-A439-7E50545881DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{91EC3C8F-4B58-413A-8F3A-B4E4E3F04818}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AFE57EA7-9EF5-40C8-8FEF-BB3EBBB2E6FB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{985982ED-0B0F-4C8A-AA7C-D471642DA3E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F0DC051-0755-4F63-B8EF-4BB4BC407645}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CECEED1E-F4BD-46E2-8B6C-82DE3387EABA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{742859BB-632E-4645-A10B-FA547E2CC4B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{32FCB92E-B6E7-44AA-9692-CB4138DDAD97}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{08C25323-66B1-4497-BFF3-DABD37785CD7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F1BCEA40-4D2F-47C8-94A4-0EB4E8E2A92F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{29BAA2D3-AD8A-47D7-A436-BA14C562EEBA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E747D715-6FD9-4DF5-8DC6-87C4CF752368}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
